--- a/data/pca/factorExposure/factorExposure_2015-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01950095914223594</v>
+        <v>0.009588150823904606</v>
       </c>
       <c r="C2">
-        <v>-0.01847514702033063</v>
+        <v>-0.05066295534303625</v>
       </c>
       <c r="D2">
-        <v>0.104931877444691</v>
+        <v>0.1303002013477067</v>
       </c>
       <c r="E2">
-        <v>-0.009352510850112754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.0216946725193898</v>
+      </c>
+      <c r="F2">
+        <v>0.03013867658174145</v>
+      </c>
+      <c r="G2">
+        <v>-0.1289196405493223</v>
+      </c>
+      <c r="H2">
+        <v>-0.03969753008004046</v>
+      </c>
+      <c r="I2">
+        <v>-0.1472494141140097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0003449968770278904</v>
+        <v>-0.0001444271970744934</v>
       </c>
       <c r="C3">
-        <v>-0.00148430222452354</v>
+        <v>-0.001188582940290378</v>
       </c>
       <c r="D3">
-        <v>0.0001781966580766806</v>
+        <v>0.001750704994156043</v>
       </c>
       <c r="E3">
-        <v>0.001668173822003238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.003727866383325224</v>
+      </c>
+      <c r="F3">
+        <v>-0.003126310236023466</v>
+      </c>
+      <c r="G3">
+        <v>-0.003183404627746519</v>
+      </c>
+      <c r="H3">
+        <v>0.009544254220216904</v>
+      </c>
+      <c r="I3">
+        <v>0.0006054690705372856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04418810482294457</v>
+        <v>0.01923308743720755</v>
       </c>
       <c r="C4">
-        <v>-0.07107388204805991</v>
+        <v>-0.1033722095870997</v>
       </c>
       <c r="D4">
-        <v>0.1301230816338226</v>
+        <v>0.1355473857117031</v>
       </c>
       <c r="E4">
-        <v>-0.08434342486718666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.007182762658096807</v>
+      </c>
+      <c r="F4">
+        <v>0.09181201335645917</v>
+      </c>
+      <c r="G4">
+        <v>-0.00845730601370368</v>
+      </c>
+      <c r="H4">
+        <v>-0.04937688307862136</v>
+      </c>
+      <c r="I4">
+        <v>0.0621975453878776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0213795720274561</v>
+        <v>0.02697575359173227</v>
       </c>
       <c r="C6">
-        <v>-0.01235367441068471</v>
+        <v>-0.03317313617888448</v>
       </c>
       <c r="D6">
-        <v>0.1370540603373863</v>
+        <v>0.1230655774626524</v>
       </c>
       <c r="E6">
-        <v>-0.03685054764862609</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.05703860952142054</v>
+      </c>
+      <c r="F6">
+        <v>0.0468102007797709</v>
+      </c>
+      <c r="G6">
+        <v>-0.006578500859752892</v>
+      </c>
+      <c r="H6">
+        <v>-0.05182862495922926</v>
+      </c>
+      <c r="I6">
+        <v>0.03114206798210636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.002535942186335001</v>
+        <v>0.008948066714571207</v>
       </c>
       <c r="C7">
-        <v>-0.02334809481100747</v>
+        <v>-0.03479203713471987</v>
       </c>
       <c r="D7">
-        <v>0.11290905528171</v>
+        <v>0.09834528908997783</v>
       </c>
       <c r="E7">
-        <v>-0.003772756778128497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05228845473644943</v>
+      </c>
+      <c r="F7">
+        <v>0.01059404429340095</v>
+      </c>
+      <c r="G7">
+        <v>-0.008284999811448503</v>
+      </c>
+      <c r="H7">
+        <v>-0.07909620137442123</v>
+      </c>
+      <c r="I7">
+        <v>0.003084347032112785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.005707840045371707</v>
+        <v>-0.00804478480981053</v>
       </c>
       <c r="C8">
-        <v>-0.02468208904361296</v>
+        <v>-0.03250498381830296</v>
       </c>
       <c r="D8">
-        <v>0.08126657330654093</v>
+        <v>0.07905140713857219</v>
       </c>
       <c r="E8">
-        <v>-0.0263166599399321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03668280030053559</v>
+      </c>
+      <c r="F8">
+        <v>0.05318944879598356</v>
+      </c>
+      <c r="G8">
+        <v>-0.06172070092413647</v>
+      </c>
+      <c r="H8">
+        <v>0.0001540134618696383</v>
+      </c>
+      <c r="I8">
+        <v>0.01219104648854909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03626933853143006</v>
+        <v>0.01325017112196322</v>
       </c>
       <c r="C9">
-        <v>-0.0602500705735351</v>
+        <v>-0.08535211500026535</v>
       </c>
       <c r="D9">
-        <v>0.1299842282646607</v>
+        <v>0.1163975708437387</v>
       </c>
       <c r="E9">
-        <v>-0.06773981347562429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.009176649042931877</v>
+      </c>
+      <c r="F9">
+        <v>0.06075024934212291</v>
+      </c>
+      <c r="G9">
+        <v>0.005816927283083895</v>
+      </c>
+      <c r="H9">
+        <v>-0.06529752958782188</v>
+      </c>
+      <c r="I9">
+        <v>0.03668171213808333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1686221138071881</v>
+        <v>0.2383174190721221</v>
       </c>
       <c r="C10">
-        <v>0.173519166115374</v>
+        <v>0.09709120758717577</v>
       </c>
       <c r="D10">
-        <v>0.00483590433173202</v>
+        <v>-0.004593372896546658</v>
       </c>
       <c r="E10">
-        <v>-0.04562758775536196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01144803535663037</v>
+      </c>
+      <c r="F10">
+        <v>0.04372554327748215</v>
+      </c>
+      <c r="G10">
+        <v>0.002898983879954022</v>
+      </c>
+      <c r="H10">
+        <v>0.05635891998148316</v>
+      </c>
+      <c r="I10">
+        <v>-0.00319387064175195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.01917055016564598</v>
+        <v>0.01000323525400962</v>
       </c>
       <c r="C11">
-        <v>-0.04038738132923914</v>
+        <v>-0.05334446198368657</v>
       </c>
       <c r="D11">
-        <v>0.04967676219551537</v>
+        <v>0.04366581550281154</v>
       </c>
       <c r="E11">
-        <v>0.01582332056295914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01996612850127959</v>
+      </c>
+      <c r="F11">
+        <v>-0.01218630043618671</v>
+      </c>
+      <c r="G11">
+        <v>-0.002037856798594124</v>
+      </c>
+      <c r="H11">
+        <v>-0.0473229138413361</v>
+      </c>
+      <c r="I11">
+        <v>0.05666817934630804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02018362153997702</v>
+        <v>0.01039182951020674</v>
       </c>
       <c r="C12">
-        <v>-0.03946851526910976</v>
+        <v>-0.04836077574226333</v>
       </c>
       <c r="D12">
-        <v>0.06139304484319759</v>
+        <v>0.04852658347046605</v>
       </c>
       <c r="E12">
-        <v>0.004974136805274653</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01546444232127472</v>
+      </c>
+      <c r="F12">
+        <v>-0.01567570169402439</v>
+      </c>
+      <c r="G12">
+        <v>0.0124367064072315</v>
+      </c>
+      <c r="H12">
+        <v>-0.07215783170628499</v>
+      </c>
+      <c r="I12">
+        <v>0.02208010678699746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.001817905396469955</v>
+        <v>-0.003880022097803397</v>
       </c>
       <c r="C13">
-        <v>-0.02244502378683555</v>
+        <v>-0.04357261560458705</v>
       </c>
       <c r="D13">
-        <v>0.1436866180016665</v>
+        <v>0.1486470999191654</v>
       </c>
       <c r="E13">
-        <v>-0.03620541585385616</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03778110546941747</v>
+      </c>
+      <c r="F13">
+        <v>0.03525761465542204</v>
+      </c>
+      <c r="G13">
+        <v>-0.03215054544092738</v>
+      </c>
+      <c r="H13">
+        <v>-0.06110168311871719</v>
+      </c>
+      <c r="I13">
+        <v>-0.07858705500062754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.005666516551498238</v>
+        <v>0.0006280741968774383</v>
       </c>
       <c r="C14">
-        <v>-0.01721601373600214</v>
+        <v>-0.02854042662475167</v>
       </c>
       <c r="D14">
-        <v>0.09914381512716035</v>
+        <v>0.1019113629049405</v>
       </c>
       <c r="E14">
-        <v>-0.01083625299219216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.04933159711296142</v>
+      </c>
+      <c r="F14">
+        <v>0.03686202333166802</v>
+      </c>
+      <c r="G14">
+        <v>-0.03823067820709813</v>
+      </c>
+      <c r="H14">
+        <v>-0.1250244980747432</v>
+      </c>
+      <c r="I14">
+        <v>-0.000127446731494919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.00262597104488371</v>
+        <v>-0.001602506921980573</v>
       </c>
       <c r="C15">
-        <v>-0.01058035081138075</v>
+        <v>-0.02438947192203991</v>
       </c>
       <c r="D15">
-        <v>0.030330780706994</v>
+        <v>0.05929444904214178</v>
       </c>
       <c r="E15">
-        <v>0.003711693022375025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.008706996594242154</v>
+      </c>
+      <c r="F15">
+        <v>0.007184289935104992</v>
+      </c>
+      <c r="G15">
+        <v>-0.02373751262277565</v>
+      </c>
+      <c r="H15">
+        <v>-0.03096987051108929</v>
+      </c>
+      <c r="I15">
+        <v>0.01997470917027212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.0189810967777027</v>
+        <v>0.01042102348508046</v>
       </c>
       <c r="C16">
-        <v>-0.03680016083587616</v>
+        <v>-0.04791449011667392</v>
       </c>
       <c r="D16">
-        <v>0.0551298679478632</v>
+        <v>0.04456437588940911</v>
       </c>
       <c r="E16">
-        <v>0.007816009185197058</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02142055273103023</v>
+      </c>
+      <c r="F16">
+        <v>-0.008495190635642707</v>
+      </c>
+      <c r="G16">
+        <v>0.008858559551224983</v>
+      </c>
+      <c r="H16">
+        <v>-0.05253033687491788</v>
+      </c>
+      <c r="I16">
+        <v>0.0474142706430084</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.004443756541652274</v>
+        <v>0.0003426752115286917</v>
       </c>
       <c r="C19">
-        <v>-0.01785155079237519</v>
+        <v>-0.01700368712677477</v>
       </c>
       <c r="D19">
-        <v>0.1011861551346911</v>
+        <v>0.06466644454113632</v>
       </c>
       <c r="E19">
-        <v>-0.04289706233240602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01136086816157804</v>
+      </c>
+      <c r="F19">
+        <v>0.01507620221371938</v>
+      </c>
+      <c r="G19">
+        <v>-0.02151898313891702</v>
+      </c>
+      <c r="H19">
+        <v>-0.0575076921082206</v>
+      </c>
+      <c r="I19">
+        <v>-0.03224778155166964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002244371149392748</v>
+        <v>0.005404365403492514</v>
       </c>
       <c r="C20">
-        <v>-0.02363303303797022</v>
+        <v>-0.03839917135206952</v>
       </c>
       <c r="D20">
-        <v>0.08559341296600037</v>
+        <v>0.09384758661957364</v>
       </c>
       <c r="E20">
-        <v>-0.03475705430995465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02180776419290554</v>
+      </c>
+      <c r="F20">
+        <v>0.02964064585322624</v>
+      </c>
+      <c r="G20">
+        <v>-0.004063013005241341</v>
+      </c>
+      <c r="H20">
+        <v>-0.05829465782433866</v>
+      </c>
+      <c r="I20">
+        <v>0.04926835504183068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.005636512583695873</v>
+        <v>0.004684748541894816</v>
       </c>
       <c r="C21">
-        <v>-0.0287233251326599</v>
+        <v>-0.04252809721660806</v>
       </c>
       <c r="D21">
-        <v>0.1626132465800798</v>
+        <v>0.1306374864678698</v>
       </c>
       <c r="E21">
-        <v>-0.07418475688529665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03009311259420402</v>
+      </c>
+      <c r="F21">
+        <v>0.09644085650513301</v>
+      </c>
+      <c r="G21">
+        <v>-0.05500004796073287</v>
+      </c>
+      <c r="H21">
+        <v>-0.1874638348123464</v>
+      </c>
+      <c r="I21">
+        <v>-0.1305881375320363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002299265832791849</v>
+        <v>-0.008192447168576885</v>
       </c>
       <c r="C22">
-        <v>-0.06266151132849895</v>
+        <v>-0.08458694554975048</v>
       </c>
       <c r="D22">
-        <v>0.2414988353690553</v>
+        <v>0.2653534196232815</v>
       </c>
       <c r="E22">
-        <v>0.01725085295728357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.05115218865094252</v>
+      </c>
+      <c r="F22">
+        <v>0.02439134805125463</v>
+      </c>
+      <c r="G22">
+        <v>-0.277836534423445</v>
+      </c>
+      <c r="H22">
+        <v>0.4519833672004597</v>
+      </c>
+      <c r="I22">
+        <v>0.07883265171317831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002026774232267463</v>
+        <v>-0.007811482818332547</v>
       </c>
       <c r="C23">
-        <v>-0.06316036654641247</v>
+        <v>-0.08569809166393005</v>
       </c>
       <c r="D23">
-        <v>0.2410163894042079</v>
+        <v>0.2661314423675281</v>
       </c>
       <c r="E23">
-        <v>0.01711020013919885</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04806405875176459</v>
+      </c>
+      <c r="F23">
+        <v>0.02461198563431091</v>
+      </c>
+      <c r="G23">
+        <v>-0.2778520099254994</v>
+      </c>
+      <c r="H23">
+        <v>0.4513615504770963</v>
+      </c>
+      <c r="I23">
+        <v>0.07803530244809931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.02429504016688575</v>
+        <v>0.009814863963986852</v>
       </c>
       <c r="C24">
-        <v>-0.05533496582757561</v>
+        <v>-0.06440706901470025</v>
       </c>
       <c r="D24">
-        <v>0.06866503460852723</v>
+        <v>0.05132487093015003</v>
       </c>
       <c r="E24">
-        <v>0.003297745282977767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02906213769804661</v>
+      </c>
+      <c r="F24">
+        <v>-0.003962119965672787</v>
+      </c>
+      <c r="G24">
+        <v>-0.004319631192792656</v>
+      </c>
+      <c r="H24">
+        <v>-0.07523263932491508</v>
+      </c>
+      <c r="I24">
+        <v>0.04073602380548253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02588699640275201</v>
+        <v>0.01416504212333901</v>
       </c>
       <c r="C25">
-        <v>-0.04697801304601517</v>
+        <v>-0.05916126351822273</v>
       </c>
       <c r="D25">
-        <v>0.06004516196021255</v>
+        <v>0.04955231115498807</v>
       </c>
       <c r="E25">
-        <v>-0.000646774326750886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01393878243933956</v>
+      </c>
+      <c r="F25">
+        <v>-0.005639916132230185</v>
+      </c>
+      <c r="G25">
+        <v>0.004487602291028577</v>
+      </c>
+      <c r="H25">
+        <v>-0.04226027739716823</v>
+      </c>
+      <c r="I25">
+        <v>0.0371909443121509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.006947641594829372</v>
+        <v>0.01369501875373401</v>
       </c>
       <c r="C26">
-        <v>-0.01579691880503845</v>
+        <v>-0.02493036626490742</v>
       </c>
       <c r="D26">
-        <v>0.08054402005969667</v>
+        <v>0.06436077200080528</v>
       </c>
       <c r="E26">
-        <v>-0.01886566819962718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04064448602933444</v>
+      </c>
+      <c r="F26">
+        <v>0.04346473539406224</v>
+      </c>
+      <c r="G26">
+        <v>-0.02264056609203308</v>
+      </c>
+      <c r="H26">
+        <v>-0.09181512332045336</v>
+      </c>
+      <c r="I26">
+        <v>-0.01176991570032274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2527390662161525</v>
+        <v>0.3183708744914904</v>
       </c>
       <c r="C28">
-        <v>0.2049455429580327</v>
+        <v>0.09489079096524207</v>
       </c>
       <c r="D28">
-        <v>0.01666138842707793</v>
+        <v>-0.01349595434209669</v>
       </c>
       <c r="E28">
-        <v>-0.06272632235617949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05168987984745224</v>
+      </c>
+      <c r="F28">
+        <v>0.04817653631083466</v>
+      </c>
+      <c r="G28">
+        <v>-0.03705676242951744</v>
+      </c>
+      <c r="H28">
+        <v>0.01535960701684679</v>
+      </c>
+      <c r="I28">
+        <v>-0.02582498651318538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002430171928859951</v>
+        <v>-0.0003286054837624988</v>
       </c>
       <c r="C29">
-        <v>-0.02135245127429172</v>
+        <v>-0.03234353301644844</v>
       </c>
       <c r="D29">
-        <v>0.09796061798690413</v>
+        <v>0.1002838948206784</v>
       </c>
       <c r="E29">
-        <v>-0.01563621031120605</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05521869190869658</v>
+      </c>
+      <c r="F29">
+        <v>0.03904122470772227</v>
+      </c>
+      <c r="G29">
+        <v>-0.025001388364491</v>
+      </c>
+      <c r="H29">
+        <v>-0.129517019400237</v>
+      </c>
+      <c r="I29">
+        <v>0.01766995237472112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02209931064870084</v>
+        <v>0.01403565560519775</v>
       </c>
       <c r="C30">
-        <v>-0.05803729037208973</v>
+        <v>-0.0850803869267731</v>
       </c>
       <c r="D30">
-        <v>0.1654871989772817</v>
+        <v>0.154796235241548</v>
       </c>
       <c r="E30">
-        <v>-0.02574012932278901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05228563431112732</v>
+      </c>
+      <c r="F30">
+        <v>0.03577772881546729</v>
+      </c>
+      <c r="G30">
+        <v>-0.03578855532651246</v>
+      </c>
+      <c r="H30">
+        <v>-0.05172926875160675</v>
+      </c>
+      <c r="I30">
+        <v>0.05001730175028065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0396934569448302</v>
+        <v>0.009832497874886334</v>
       </c>
       <c r="C31">
-        <v>-0.08420020845242765</v>
+        <v>-0.09239909191683211</v>
       </c>
       <c r="D31">
-        <v>0.06697411762921517</v>
+        <v>0.04036998269455239</v>
       </c>
       <c r="E31">
-        <v>-0.01360513788526504</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01854243570991205</v>
+      </c>
+      <c r="F31">
+        <v>0.01581499082148832</v>
+      </c>
+      <c r="G31">
+        <v>-0.01279917582063202</v>
+      </c>
+      <c r="H31">
+        <v>-0.04341382976637558</v>
+      </c>
+      <c r="I31">
+        <v>0.0008898060412541369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.01715564960290508</v>
+        <v>0.009287559601526718</v>
       </c>
       <c r="C32">
-        <v>-0.03189411608797368</v>
+        <v>-0.04483999125808701</v>
       </c>
       <c r="D32">
-        <v>0.09993208638717953</v>
+        <v>0.1061851922922105</v>
       </c>
       <c r="E32">
-        <v>-0.06742954273103759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.001224544486828785</v>
+      </c>
+      <c r="F32">
+        <v>0.05242501086839649</v>
+      </c>
+      <c r="G32">
+        <v>-0.02656330160458028</v>
+      </c>
+      <c r="H32">
+        <v>-0.0361274935200414</v>
+      </c>
+      <c r="I32">
+        <v>-0.06494352493875158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.009746314800653017</v>
+        <v>0.006777585272720841</v>
       </c>
       <c r="C33">
-        <v>-0.04053925636376774</v>
+        <v>-0.05721757243734203</v>
       </c>
       <c r="D33">
-        <v>0.1365062128806891</v>
+        <v>0.1216713629432443</v>
       </c>
       <c r="E33">
-        <v>-0.04018983830727278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02530985185628143</v>
+      </c>
+      <c r="F33">
+        <v>0.02921119609167096</v>
+      </c>
+      <c r="G33">
+        <v>-0.01450190951586221</v>
+      </c>
+      <c r="H33">
+        <v>-0.06388595628058837</v>
+      </c>
+      <c r="I33">
+        <v>0.01496112212448007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02243831011763929</v>
+        <v>0.007952416533106715</v>
       </c>
       <c r="C34">
-        <v>-0.05855718487821744</v>
+        <v>-0.06168078179158747</v>
       </c>
       <c r="D34">
-        <v>0.05209395395422478</v>
+        <v>0.03140834378849831</v>
       </c>
       <c r="E34">
-        <v>0.04603112917297526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03004023877828231</v>
+      </c>
+      <c r="F34">
+        <v>-0.03819951839329423</v>
+      </c>
+      <c r="G34">
+        <v>-0.0008989901685611617</v>
+      </c>
+      <c r="H34">
+        <v>-0.06011154383885356</v>
+      </c>
+      <c r="I34">
+        <v>0.0225485836341087</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0009258479258647851</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.008599791735205888</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02863531668771271</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003224350593137503</v>
+      </c>
+      <c r="F35">
+        <v>0.01748470861092972</v>
+      </c>
+      <c r="G35">
+        <v>-0.01414796004759903</v>
+      </c>
+      <c r="H35">
+        <v>-0.03912697560035882</v>
+      </c>
+      <c r="I35">
+        <v>0.03948606742759821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.006008280087605383</v>
+        <v>0.01162801739340128</v>
       </c>
       <c r="C36">
-        <v>-0.005855531485987712</v>
+        <v>-0.01813639142853612</v>
       </c>
       <c r="D36">
-        <v>0.086351050605588</v>
+        <v>0.07308598862318876</v>
       </c>
       <c r="E36">
-        <v>-0.0436056957083181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02524287796670076</v>
+      </c>
+      <c r="F36">
+        <v>0.0486497014722202</v>
+      </c>
+      <c r="G36">
+        <v>-0.01627737484769462</v>
+      </c>
+      <c r="H36">
+        <v>-0.06187881905043146</v>
+      </c>
+      <c r="I36">
+        <v>-0.001893499065116915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004572596540269964</v>
+        <v>0.01462815413705011</v>
       </c>
       <c r="C38">
-        <v>-0.006804505139941382</v>
+        <v>-0.01902477062310397</v>
       </c>
       <c r="D38">
-        <v>0.08572785427322813</v>
+        <v>0.08803443734972929</v>
       </c>
       <c r="E38">
-        <v>-0.0112058566291983</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00165422032700002</v>
+      </c>
+      <c r="F38">
+        <v>0.00214712327488276</v>
+      </c>
+      <c r="G38">
+        <v>-0.03384101181132323</v>
+      </c>
+      <c r="H38">
+        <v>-0.06089411216047484</v>
+      </c>
+      <c r="I38">
+        <v>0.01961118982098084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.01533557041891324</v>
+        <v>0.003087128672061008</v>
       </c>
       <c r="C39">
-        <v>-0.05609599975636274</v>
+        <v>-0.07374806084675939</v>
       </c>
       <c r="D39">
-        <v>0.1154768277188734</v>
+        <v>0.09923801691403662</v>
       </c>
       <c r="E39">
-        <v>0.01480093732214387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05327599442754045</v>
+      </c>
+      <c r="F39">
+        <v>-0.003334941879626958</v>
+      </c>
+      <c r="G39">
+        <v>-0.005990055778079852</v>
+      </c>
+      <c r="H39">
+        <v>-0.1034345816479754</v>
+      </c>
+      <c r="I39">
+        <v>0.03677037743658947</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01073559186265513</v>
+        <v>0.01192957436498641</v>
       </c>
       <c r="C40">
-        <v>-0.01651485326133383</v>
+        <v>-0.02826167887910228</v>
       </c>
       <c r="D40">
-        <v>0.1218727501353705</v>
+        <v>0.0988216494653882</v>
       </c>
       <c r="E40">
-        <v>0.01780561800275714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04788478096842153</v>
+      </c>
+      <c r="F40">
+        <v>-0.02118189844320016</v>
+      </c>
+      <c r="G40">
+        <v>-0.06785350104091174</v>
+      </c>
+      <c r="H40">
+        <v>-0.06814671312273964</v>
+      </c>
+      <c r="I40">
+        <v>-0.08363934113846709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01080577232405425</v>
+        <v>0.01681922213019192</v>
       </c>
       <c r="C41">
-        <v>-0.00386644060284192</v>
+        <v>-0.01556384608942923</v>
       </c>
       <c r="D41">
-        <v>0.04518945488018965</v>
+        <v>0.0433016316756793</v>
       </c>
       <c r="E41">
-        <v>-0.03204183330095833</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.008764137569894026</v>
+      </c>
+      <c r="F41">
+        <v>0.02412214401122895</v>
+      </c>
+      <c r="G41">
+        <v>-0.0197522357080669</v>
+      </c>
+      <c r="H41">
+        <v>-0.03902718202727509</v>
+      </c>
+      <c r="I41">
+        <v>0.02192224853331291</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.0037650036594651</v>
+        <v>0.01077639379991084</v>
       </c>
       <c r="C43">
-        <v>-0.00425658355242303</v>
+        <v>-0.01271721671721471</v>
       </c>
       <c r="D43">
-        <v>0.05454310882968774</v>
+        <v>0.05003579504472152</v>
       </c>
       <c r="E43">
-        <v>-0.02206975117954399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00766818274108869</v>
+      </c>
+      <c r="F43">
+        <v>0.02098143477995517</v>
+      </c>
+      <c r="G43">
+        <v>-0.02203956904044959</v>
+      </c>
+      <c r="H43">
+        <v>-0.05388045596359138</v>
+      </c>
+      <c r="I43">
+        <v>0.03582597353594028</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01605291386461939</v>
+        <v>0.01147404118325615</v>
       </c>
       <c r="C44">
-        <v>-0.02253665724072887</v>
+        <v>-0.04431449492481728</v>
       </c>
       <c r="D44">
-        <v>0.1116210792554068</v>
+        <v>0.1118856294107876</v>
       </c>
       <c r="E44">
-        <v>-0.04803447519685428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03871128484075509</v>
+      </c>
+      <c r="F44">
+        <v>0.03657868148732937</v>
+      </c>
+      <c r="G44">
+        <v>-0.03426513788604003</v>
+      </c>
+      <c r="H44">
+        <v>-0.0492671827782545</v>
+      </c>
+      <c r="I44">
+        <v>0.03881149557971254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.005187996658778912</v>
+        <v>-0.0001679370575476911</v>
       </c>
       <c r="C46">
-        <v>-0.02807873591714545</v>
+        <v>-0.03953718008377939</v>
       </c>
       <c r="D46">
-        <v>0.09039657583413772</v>
+        <v>0.07936546581325077</v>
       </c>
       <c r="E46">
-        <v>-0.01859303078665724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04189093104169021</v>
+      </c>
+      <c r="F46">
+        <v>0.03448446601181021</v>
+      </c>
+      <c r="G46">
+        <v>-0.03468888369284301</v>
+      </c>
+      <c r="H46">
+        <v>-0.1306638309881505</v>
+      </c>
+      <c r="I46">
+        <v>0.03766412883694545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08222891619753152</v>
+        <v>0.03618014382422021</v>
       </c>
       <c r="C47">
-        <v>-0.1056782863835775</v>
+        <v>-0.1260887136665574</v>
       </c>
       <c r="D47">
-        <v>0.05699293395454112</v>
+        <v>0.02673793350948349</v>
       </c>
       <c r="E47">
-        <v>-0.02943876868419038</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007630739943027333</v>
+      </c>
+      <c r="F47">
+        <v>-0.004308559776793643</v>
+      </c>
+      <c r="G47">
+        <v>0.03080516102397711</v>
+      </c>
+      <c r="H47">
+        <v>-0.05783683790547031</v>
+      </c>
+      <c r="I47">
+        <v>-0.03153034165017982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007179208276651221</v>
+        <v>0.01271878764458434</v>
       </c>
       <c r="C48">
-        <v>-0.01519400675592333</v>
+        <v>-0.02802537847446292</v>
       </c>
       <c r="D48">
-        <v>0.08898237623235157</v>
+        <v>0.07774235070817424</v>
       </c>
       <c r="E48">
-        <v>-0.05628664981308329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01821720200468186</v>
+      </c>
+      <c r="F48">
+        <v>0.06036157307201721</v>
+      </c>
+      <c r="G48">
+        <v>-0.03172915026379908</v>
+      </c>
+      <c r="H48">
+        <v>-0.09950561223918099</v>
+      </c>
+      <c r="I48">
+        <v>0.01361032229621257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0373844607503975</v>
+        <v>0.01557627288364294</v>
       </c>
       <c r="C50">
-        <v>-0.05963815621102154</v>
+        <v>-0.07489435058152744</v>
       </c>
       <c r="D50">
-        <v>0.06231938557397122</v>
+        <v>0.04872500986893021</v>
       </c>
       <c r="E50">
-        <v>-0.009279596855530261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0112689323025198</v>
+      </c>
+      <c r="F50">
+        <v>0.01113150853673276</v>
+      </c>
+      <c r="G50">
+        <v>-0.02469137623843407</v>
+      </c>
+      <c r="H50">
+        <v>-0.02991907479053976</v>
+      </c>
+      <c r="I50">
+        <v>0.0002633946230988934</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001606602406862419</v>
+        <v>-0.0008743531875344088</v>
       </c>
       <c r="C51">
-        <v>-0.003976373636503155</v>
+        <v>-0.01618501415209622</v>
       </c>
       <c r="D51">
-        <v>0.06238663699615003</v>
+        <v>0.05994549760317151</v>
       </c>
       <c r="E51">
-        <v>0.0002613154237753295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0387678446842188</v>
+      </c>
+      <c r="F51">
+        <v>0.03708280510136444</v>
+      </c>
+      <c r="G51">
+        <v>-0.03048341512262126</v>
+      </c>
+      <c r="H51">
+        <v>-0.03790069150409905</v>
+      </c>
+      <c r="I51">
+        <v>-0.02110700747174684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1090097287834294</v>
+        <v>0.05566308908224539</v>
       </c>
       <c r="C53">
-        <v>-0.1214112316759815</v>
+        <v>-0.1550664709043019</v>
       </c>
       <c r="D53">
-        <v>0.01323564268393914</v>
+        <v>-0.01678179142717879</v>
       </c>
       <c r="E53">
-        <v>-0.06262927838795811</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02908416794296582</v>
+      </c>
+      <c r="F53">
+        <v>0.05058943966926958</v>
+      </c>
+      <c r="G53">
+        <v>-0.003439075932436911</v>
+      </c>
+      <c r="H53">
+        <v>-0.0006074778630599967</v>
+      </c>
+      <c r="I53">
+        <v>0.003260028738915723</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01285420563609441</v>
+        <v>0.01021504025887155</v>
       </c>
       <c r="C54">
-        <v>-0.02119084240582837</v>
+        <v>-0.03895468018881929</v>
       </c>
       <c r="D54">
-        <v>0.09403924916538055</v>
+        <v>0.081184197152654</v>
       </c>
       <c r="E54">
-        <v>-0.002684651828146224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01507799034491933</v>
+      </c>
+      <c r="F54">
+        <v>0.001944488359062624</v>
+      </c>
+      <c r="G54">
+        <v>-0.03731388728443159</v>
+      </c>
+      <c r="H54">
+        <v>-0.08005120770816657</v>
+      </c>
+      <c r="I54">
+        <v>0.04623979280480609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.09658498178570499</v>
+        <v>0.04294763537570798</v>
       </c>
       <c r="C55">
-        <v>-0.1030887830504829</v>
+        <v>-0.1291269605190962</v>
       </c>
       <c r="D55">
-        <v>0.006554130942117744</v>
+        <v>-0.02992718211021025</v>
       </c>
       <c r="E55">
-        <v>-0.01359227569350416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004253032185725686</v>
+      </c>
+      <c r="F55">
+        <v>0.01574364048892137</v>
+      </c>
+      <c r="G55">
+        <v>-0.01399245702926815</v>
+      </c>
+      <c r="H55">
+        <v>-0.004700871597875011</v>
+      </c>
+      <c r="I55">
+        <v>-0.02014483899713746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1345452819814806</v>
+        <v>0.05799738325922676</v>
       </c>
       <c r="C56">
-        <v>-0.1391267024548308</v>
+        <v>-0.187289058166238</v>
       </c>
       <c r="D56">
-        <v>-0.000758925174882628</v>
+        <v>-0.03041987765351112</v>
       </c>
       <c r="E56">
-        <v>-0.01392314597886271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03179262517303307</v>
+      </c>
+      <c r="F56">
+        <v>0.01894954324929624</v>
+      </c>
+      <c r="G56">
+        <v>-0.05931123456331113</v>
+      </c>
+      <c r="H56">
+        <v>0.01089406234333371</v>
+      </c>
+      <c r="I56">
+        <v>-0.02198547027976919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.008382363453009987</v>
+        <v>0.005968339334104284</v>
       </c>
       <c r="C58">
-        <v>-0.01224999681144533</v>
+        <v>-0.05073778777137222</v>
       </c>
       <c r="D58">
-        <v>0.214201932347208</v>
+        <v>0.274026425522777</v>
       </c>
       <c r="E58">
-        <v>-0.08236302975106241</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.009746812008135599</v>
+      </c>
+      <c r="F58">
+        <v>0.1104693977517369</v>
+      </c>
+      <c r="G58">
+        <v>-0.1111611782512392</v>
+      </c>
+      <c r="H58">
+        <v>0.1152791345777704</v>
+      </c>
+      <c r="I58">
+        <v>0.05971206706953033</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1772018568749091</v>
+        <v>0.2527169335607393</v>
       </c>
       <c r="C59">
-        <v>0.1512529684881544</v>
+        <v>0.06613292020205304</v>
       </c>
       <c r="D59">
-        <v>0.04283842026352759</v>
+        <v>0.05714536202186808</v>
       </c>
       <c r="E59">
-        <v>-0.03648541032590832</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02251967810853634</v>
+      </c>
+      <c r="F59">
+        <v>0.02503601295964451</v>
+      </c>
+      <c r="G59">
+        <v>-0.009509148033972925</v>
+      </c>
+      <c r="H59">
+        <v>0.005945683380182904</v>
+      </c>
+      <c r="I59">
+        <v>-0.07422242942014917</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.189201884736639</v>
+        <v>0.1512453371338268</v>
       </c>
       <c r="C60">
-        <v>-0.09851153488811816</v>
+        <v>-0.1705814828742002</v>
       </c>
       <c r="D60">
-        <v>0.2045479341143751</v>
+        <v>0.09122431918352</v>
       </c>
       <c r="E60">
-        <v>0.1671727410975752</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1672922128677568</v>
+      </c>
+      <c r="F60">
+        <v>-0.2277696582966007</v>
+      </c>
+      <c r="G60">
+        <v>0.2620635005995154</v>
+      </c>
+      <c r="H60">
+        <v>0.1725933038521225</v>
+      </c>
+      <c r="I60">
+        <v>-0.09795724509535181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.02593831883962348</v>
+        <v>0.01078294577673823</v>
       </c>
       <c r="C61">
-        <v>-0.05308446846612635</v>
+        <v>-0.07189299248727342</v>
       </c>
       <c r="D61">
-        <v>0.1004960220413714</v>
+        <v>0.07849299093288342</v>
       </c>
       <c r="E61">
-        <v>0.006559639497095584</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03641380088487035</v>
+      </c>
+      <c r="F61">
+        <v>-0.01448317557808427</v>
+      </c>
+      <c r="G61">
+        <v>0.009490582435806919</v>
+      </c>
+      <c r="H61">
+        <v>-0.09286591042808133</v>
+      </c>
+      <c r="I61">
+        <v>0.02133985475004174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.007309366129379891</v>
+        <v>0.008667920013101982</v>
       </c>
       <c r="C63">
-        <v>-0.02507553055315255</v>
+        <v>-0.034731374544374</v>
       </c>
       <c r="D63">
-        <v>0.09200844893874087</v>
+        <v>0.06769064960219208</v>
       </c>
       <c r="E63">
-        <v>-0.0153651895527758</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05420397972996507</v>
+      </c>
+      <c r="F63">
+        <v>0.02893347666726874</v>
+      </c>
+      <c r="G63">
+        <v>-0.02153523969033959</v>
+      </c>
+      <c r="H63">
+        <v>-0.06619245636631844</v>
+      </c>
+      <c r="I63">
+        <v>0.03391495121117135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05687610104322605</v>
+        <v>0.01983534973923164</v>
       </c>
       <c r="C64">
-        <v>-0.08175582249171369</v>
+        <v>-0.1046646238003286</v>
       </c>
       <c r="D64">
-        <v>0.04039866635018998</v>
+        <v>0.02443442446734871</v>
       </c>
       <c r="E64">
-        <v>-0.01423088232626682</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02933086214423989</v>
+      </c>
+      <c r="F64">
+        <v>0.0175995459512913</v>
+      </c>
+      <c r="G64">
+        <v>0.03941236241393765</v>
+      </c>
+      <c r="H64">
+        <v>-0.1097645960436295</v>
+      </c>
+      <c r="I64">
+        <v>0.03596101444470831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0249535383486935</v>
+        <v>0.02101540421272753</v>
       </c>
       <c r="C65">
-        <v>-0.01570220798946636</v>
+        <v>-0.0421986437298164</v>
       </c>
       <c r="D65">
-        <v>0.1182234812944123</v>
+        <v>0.1177381109627043</v>
       </c>
       <c r="E65">
-        <v>-0.005961546777559354</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04150300682013353</v>
+      </c>
+      <c r="F65">
+        <v>-0.007229726864022006</v>
+      </c>
+      <c r="G65">
+        <v>0.02299815406701003</v>
+      </c>
+      <c r="H65">
+        <v>-0.03514827953972224</v>
+      </c>
+      <c r="I65">
+        <v>0.06631387110525001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.01887566843241724</v>
+        <v>0.0005052306415703402</v>
       </c>
       <c r="C66">
-        <v>-0.06381628292492977</v>
+        <v>-0.09124321030299042</v>
       </c>
       <c r="D66">
-        <v>0.1218477520710128</v>
+        <v>0.1243526124233277</v>
       </c>
       <c r="E66">
-        <v>0.01753840324791325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04001025096183267</v>
+      </c>
+      <c r="F66">
+        <v>-0.009298845949733072</v>
+      </c>
+      <c r="G66">
+        <v>-0.0191416158739709</v>
+      </c>
+      <c r="H66">
+        <v>-0.06193121741731554</v>
+      </c>
+      <c r="I66">
+        <v>0.02750069818624877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02446845207740057</v>
+        <v>0.0252641352652923</v>
       </c>
       <c r="C67">
-        <v>-0.01966683059794823</v>
+        <v>-0.03130457995426145</v>
       </c>
       <c r="D67">
-        <v>0.04194848612403204</v>
+        <v>0.04009581154616258</v>
       </c>
       <c r="E67">
-        <v>0.01536555294741549</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.008574024888940946</v>
+      </c>
+      <c r="F67">
+        <v>-0.02742622262864072</v>
+      </c>
+      <c r="G67">
+        <v>-0.01870580720348491</v>
+      </c>
+      <c r="H67">
+        <v>-0.06519317142652967</v>
+      </c>
+      <c r="I67">
+        <v>0.02171246892364372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2015221904212649</v>
+        <v>0.2730841942927239</v>
       </c>
       <c r="C68">
-        <v>0.1605483330307771</v>
+        <v>0.07030774289068104</v>
       </c>
       <c r="D68">
-        <v>0.03433370808162235</v>
+        <v>0.02886406949874427</v>
       </c>
       <c r="E68">
-        <v>-0.008215141296982365</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005259636625181023</v>
+      </c>
+      <c r="F68">
+        <v>0.02611061293497021</v>
+      </c>
+      <c r="G68">
+        <v>-0.05716240200598024</v>
+      </c>
+      <c r="H68">
+        <v>0.06775384672895961</v>
+      </c>
+      <c r="I68">
+        <v>-0.03571032117511351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.05893420473063087</v>
+        <v>0.02087637674918943</v>
       </c>
       <c r="C69">
-        <v>-0.113572679956057</v>
+        <v>-0.1168922780240954</v>
       </c>
       <c r="D69">
-        <v>0.07893048220773148</v>
+        <v>0.03297928873371024</v>
       </c>
       <c r="E69">
-        <v>-0.01820539375440557</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.007259269883058602</v>
+      </c>
+      <c r="F69">
+        <v>-0.005915915599817593</v>
+      </c>
+      <c r="G69">
+        <v>0.01258721705358296</v>
+      </c>
+      <c r="H69">
+        <v>-0.04361448822354154</v>
+      </c>
+      <c r="I69">
+        <v>-0.0111828136765677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2098429024726198</v>
+        <v>0.274169710471689</v>
       </c>
       <c r="C71">
-        <v>0.1841623749963307</v>
+        <v>0.08472726752542623</v>
       </c>
       <c r="D71">
-        <v>0.0210317877233951</v>
+        <v>0.01525782262291977</v>
       </c>
       <c r="E71">
-        <v>-0.01474645348419194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.002296749883377411</v>
+      </c>
+      <c r="F71">
+        <v>0.02119230297739997</v>
+      </c>
+      <c r="G71">
+        <v>-0.03882000540028459</v>
+      </c>
+      <c r="H71">
+        <v>-0.01076089251652822</v>
+      </c>
+      <c r="I71">
+        <v>-0.03390347121274356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1067989802844847</v>
+        <v>0.05619994212467493</v>
       </c>
       <c r="C72">
-        <v>-0.07175626148217028</v>
+        <v>-0.1237010176540171</v>
       </c>
       <c r="D72">
-        <v>0.1062972360507405</v>
+        <v>0.05846980417139749</v>
       </c>
       <c r="E72">
-        <v>0.04779634482952595</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.06981939938553067</v>
+      </c>
+      <c r="F72">
+        <v>-0.0292778206838687</v>
+      </c>
+      <c r="G72">
+        <v>0.02268548044613292</v>
+      </c>
+      <c r="H72">
+        <v>-0.05471827085947904</v>
+      </c>
+      <c r="I72">
+        <v>0.0568198371974843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.174517406985933</v>
+        <v>0.1414906477813435</v>
       </c>
       <c r="C73">
-        <v>-0.06275598583353451</v>
+        <v>-0.1437624819785216</v>
       </c>
       <c r="D73">
-        <v>0.2812725126450649</v>
+        <v>0.1076103105080611</v>
       </c>
       <c r="E73">
-        <v>0.25495902358807</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3002314931774162</v>
+      </c>
+      <c r="F73">
+        <v>-0.3269553331537435</v>
+      </c>
+      <c r="G73">
+        <v>0.4286307949222121</v>
+      </c>
+      <c r="H73">
+        <v>0.06861162496357863</v>
+      </c>
+      <c r="I73">
+        <v>-0.04320482252078103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1104559249598324</v>
+        <v>0.05097457178476705</v>
       </c>
       <c r="C74">
-        <v>-0.1129512334079303</v>
+        <v>-0.1463265998352258</v>
       </c>
       <c r="D74">
-        <v>-0.01987484930629116</v>
+        <v>-0.04104559711562593</v>
       </c>
       <c r="E74">
-        <v>-0.04257994835001125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01147788440323468</v>
+      </c>
+      <c r="F74">
+        <v>0.03740347790628368</v>
+      </c>
+      <c r="G74">
+        <v>0.002767847953634763</v>
+      </c>
+      <c r="H74">
+        <v>0.0200499429588648</v>
+      </c>
+      <c r="I74">
+        <v>-0.0316398262439733</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2376331912646927</v>
+        <v>0.1113191056047255</v>
       </c>
       <c r="C75">
-        <v>-0.1955050906272218</v>
+        <v>-0.2697642437043172</v>
       </c>
       <c r="D75">
-        <v>-0.1055799490741674</v>
+        <v>-0.1347913164224811</v>
       </c>
       <c r="E75">
-        <v>0.02423072625944785</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08794462583476477</v>
+      </c>
+      <c r="F75">
+        <v>-0.02995769154153783</v>
+      </c>
+      <c r="G75">
+        <v>-0.09639905967425641</v>
+      </c>
+      <c r="H75">
+        <v>0.01266567632316414</v>
+      </c>
+      <c r="I75">
+        <v>-0.01120718007099775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1418906581748485</v>
+        <v>0.06357940607088326</v>
       </c>
       <c r="C76">
-        <v>-0.1361540900535429</v>
+        <v>-0.1820280151313716</v>
       </c>
       <c r="D76">
-        <v>0.01357019959638676</v>
+        <v>-0.03561302623086082</v>
       </c>
       <c r="E76">
-        <v>-0.01269286335186709</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02262034216243676</v>
+      </c>
+      <c r="F76">
+        <v>0.004975509113626391</v>
+      </c>
+      <c r="G76">
+        <v>-0.04476750396926</v>
+      </c>
+      <c r="H76">
+        <v>-0.01996915475659789</v>
+      </c>
+      <c r="I76">
+        <v>-0.005123315466861736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.02106158511701936</v>
+        <v>0.000240897481463865</v>
       </c>
       <c r="C77">
-        <v>-0.0663067292600287</v>
+        <v>-0.1025548031667125</v>
       </c>
       <c r="D77">
-        <v>0.003390072974986847</v>
+        <v>0.3067771086102392</v>
       </c>
       <c r="E77">
-        <v>-0.2294095216107086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.839984111690294</v>
+      </c>
+      <c r="F77">
+        <v>-0.2403726067789532</v>
+      </c>
+      <c r="G77">
+        <v>0.2375585520514095</v>
+      </c>
+      <c r="H77">
+        <v>0.1013263444572027</v>
+      </c>
+      <c r="I77">
+        <v>0.0003633442888230303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02622388543697411</v>
+        <v>0.01623072284399783</v>
       </c>
       <c r="C78">
-        <v>-0.06697998639818997</v>
+        <v>-0.08787512643651081</v>
       </c>
       <c r="D78">
-        <v>0.1535532526607604</v>
+        <v>0.12577675568902</v>
       </c>
       <c r="E78">
-        <v>-0.04642839907420847</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06672428403555122</v>
+      </c>
+      <c r="F78">
+        <v>0.04616647567051041</v>
+      </c>
+      <c r="G78">
+        <v>-0.03359347457156037</v>
+      </c>
+      <c r="H78">
+        <v>-0.01476284539154746</v>
+      </c>
+      <c r="I78">
+        <v>-0.1301497085717881</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09758278978103593</v>
+        <v>0.0355906964098992</v>
       </c>
       <c r="C79">
-        <v>-0.17219940721205</v>
+        <v>-0.1906229100901913</v>
       </c>
       <c r="D79">
-        <v>-0.09221049286642639</v>
+        <v>-0.07024719427866935</v>
       </c>
       <c r="E79">
-        <v>-0.7962519384904658</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05459364144201174</v>
+      </c>
+      <c r="F79">
+        <v>0.7652783205040429</v>
+      </c>
+      <c r="G79">
+        <v>0.4836967831984406</v>
+      </c>
+      <c r="H79">
+        <v>0.195781045123629</v>
+      </c>
+      <c r="I79">
+        <v>0.04299024782970796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.004883397499180067</v>
+        <v>0.005107259299686049</v>
       </c>
       <c r="C80">
-        <v>-0.04604949288994482</v>
+        <v>-0.04487674674895291</v>
       </c>
       <c r="D80">
-        <v>0.05162987495359993</v>
+        <v>0.04167150888501497</v>
       </c>
       <c r="E80">
-        <v>0.006752888423638618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04201804171274347</v>
+      </c>
+      <c r="F80">
+        <v>0.006898117042986772</v>
+      </c>
+      <c r="G80">
+        <v>-0.02442717741186947</v>
+      </c>
+      <c r="H80">
+        <v>-0.01863279349109418</v>
+      </c>
+      <c r="I80">
+        <v>-0.06897368643679336</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.120909560781343</v>
+        <v>0.04485794425646052</v>
       </c>
       <c r="C81">
-        <v>-0.1329104116198762</v>
+        <v>-0.1673034690160687</v>
       </c>
       <c r="D81">
-        <v>-0.07392688087007282</v>
+        <v>-0.08134254061954042</v>
       </c>
       <c r="E81">
-        <v>-0.06279272570361211</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05170561281457233</v>
+      </c>
+      <c r="F81">
+        <v>0.06275944915065192</v>
+      </c>
+      <c r="G81">
+        <v>-0.06124467122132485</v>
+      </c>
+      <c r="H81">
+        <v>-0.05771356112519273</v>
+      </c>
+      <c r="I81">
+        <v>-0.02461085950710395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2576213584811372</v>
+        <v>0.09503416467674206</v>
       </c>
       <c r="C82">
-        <v>-0.2945225916123421</v>
+        <v>-0.3274555957008147</v>
       </c>
       <c r="D82">
-        <v>-0.2007961846734963</v>
+        <v>-0.2324743215127286</v>
       </c>
       <c r="E82">
-        <v>0.1377848114637284</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.05346669322459608</v>
+      </c>
+      <c r="F82">
+        <v>-0.1034002126033494</v>
+      </c>
+      <c r="G82">
+        <v>-0.1183795569845059</v>
+      </c>
+      <c r="H82">
+        <v>-0.08918693124793625</v>
+      </c>
+      <c r="I82">
+        <v>-0.02704025804189903</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.006700580461681391</v>
+        <v>-0.01639350453294082</v>
       </c>
       <c r="C83">
-        <v>-0.0523545126621625</v>
+        <v>-0.02505825024712734</v>
       </c>
       <c r="D83">
-        <v>0.01106456000533449</v>
+        <v>0.02263280777176601</v>
       </c>
       <c r="E83">
-        <v>-0.05767071302560858</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.07398970729123901</v>
+      </c>
+      <c r="F83">
+        <v>0.0677011787985715</v>
+      </c>
+      <c r="G83">
+        <v>-0.08770275495743567</v>
+      </c>
+      <c r="H83">
+        <v>-0.01881915818284283</v>
+      </c>
+      <c r="I83">
+        <v>-0.837468526561036</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0005642526155895713</v>
+        <v>-0.001078026399865834</v>
       </c>
       <c r="C84">
-        <v>0.001763016866898976</v>
+        <v>-0.01875498033299346</v>
       </c>
       <c r="D84">
-        <v>0.004777344666834485</v>
+        <v>0.04780482480418932</v>
       </c>
       <c r="E84">
-        <v>-0.0004267489195435117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001182814240012455</v>
+      </c>
+      <c r="F84">
+        <v>0.02917895860637925</v>
+      </c>
+      <c r="G84">
+        <v>-0.05152434569059289</v>
+      </c>
+      <c r="H84">
+        <v>-0.005404655512137653</v>
+      </c>
+      <c r="I84">
+        <v>0.06505538834923784</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.143322379863505</v>
+        <v>0.05925795271499597</v>
       </c>
       <c r="C85">
-        <v>-0.1368023599697411</v>
+        <v>-0.1840488709168009</v>
       </c>
       <c r="D85">
-        <v>-0.03742084282244631</v>
+        <v>-0.0890246644978603</v>
       </c>
       <c r="E85">
-        <v>-0.0269196149000305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001374183724799811</v>
+      </c>
+      <c r="F85">
+        <v>0.07345073816896859</v>
+      </c>
+      <c r="G85">
+        <v>-0.01899954489688569</v>
+      </c>
+      <c r="H85">
+        <v>0.0115147528468458</v>
+      </c>
+      <c r="I85">
+        <v>-0.006363570901080483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01336478476575727</v>
+        <v>0.01180969799665077</v>
       </c>
       <c r="C86">
-        <v>-0.01396843375980632</v>
+        <v>-0.03270384902059596</v>
       </c>
       <c r="D86">
-        <v>0.07603142356466379</v>
+        <v>0.1022979566110253</v>
       </c>
       <c r="E86">
-        <v>-0.05008260092564241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.0235809739552248</v>
+      </c>
+      <c r="F86">
+        <v>-0.001985768301799079</v>
+      </c>
+      <c r="G86">
+        <v>0.008083781636577039</v>
+      </c>
+      <c r="H86">
+        <v>-0.02386483915659125</v>
+      </c>
+      <c r="I86">
+        <v>-0.02946313816556625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01931475900487726</v>
+        <v>0.01225800967444153</v>
       </c>
       <c r="C87">
-        <v>-0.02391388200172332</v>
+        <v>-0.05594124363153811</v>
       </c>
       <c r="D87">
-        <v>0.1318499614963706</v>
+        <v>0.146213241312222</v>
       </c>
       <c r="E87">
-        <v>-0.05527218493468268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.009454144297864349</v>
+      </c>
+      <c r="F87">
+        <v>0.04668394058633246</v>
+      </c>
+      <c r="G87">
+        <v>-0.06058879319428525</v>
+      </c>
+      <c r="H87">
+        <v>-0.02362870075196772</v>
+      </c>
+      <c r="I87">
+        <v>-0.04708198779783999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05495607407630525</v>
+        <v>0.03530204799025388</v>
       </c>
       <c r="C88">
-        <v>-0.04538175290669949</v>
+        <v>-0.06674411394180144</v>
       </c>
       <c r="D88">
-        <v>0.0237716144034352</v>
+        <v>0.007740029536044843</v>
       </c>
       <c r="E88">
-        <v>-0.02966294975164753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02448799919250984</v>
+      </c>
+      <c r="F88">
+        <v>0.01753519122570552</v>
+      </c>
+      <c r="G88">
+        <v>0.004108928869479404</v>
+      </c>
+      <c r="H88">
+        <v>-0.0183643111213679</v>
+      </c>
+      <c r="I88">
+        <v>0.03587933044682543</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.313194624430829</v>
+        <v>0.4069252635805813</v>
       </c>
       <c r="C89">
-        <v>0.3329809487582902</v>
+        <v>0.1591675902577926</v>
       </c>
       <c r="D89">
-        <v>0.01940085677921696</v>
+        <v>0.0323322327048492</v>
       </c>
       <c r="E89">
-        <v>-0.09484466049325306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05466998586369845</v>
+      </c>
+      <c r="F89">
+        <v>0.07028939899431248</v>
+      </c>
+      <c r="G89">
+        <v>-0.04043751847204871</v>
+      </c>
+      <c r="H89">
+        <v>-0.1210583636549886</v>
+      </c>
+      <c r="I89">
+        <v>-0.07561125903323745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2489734304570879</v>
+        <v>0.3165238220766174</v>
       </c>
       <c r="C90">
-        <v>0.244493961864729</v>
+        <v>0.1097756071384701</v>
       </c>
       <c r="D90">
-        <v>0.04005844168003067</v>
+        <v>0.03185990660747169</v>
       </c>
       <c r="E90">
-        <v>0.005773116279649566</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01223089099426194</v>
+      </c>
+      <c r="F90">
+        <v>-0.006527697728952572</v>
+      </c>
+      <c r="G90">
+        <v>-0.06460552101124892</v>
+      </c>
+      <c r="H90">
+        <v>0.02935099241008694</v>
+      </c>
+      <c r="I90">
+        <v>-0.03942495218603202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1588178011657834</v>
+        <v>0.07034771970431948</v>
       </c>
       <c r="C91">
-        <v>-0.1854781108837318</v>
+        <v>-0.2103826265626067</v>
       </c>
       <c r="D91">
-        <v>-0.09905549061959666</v>
+        <v>-0.1091153477420199</v>
       </c>
       <c r="E91">
-        <v>-0.09317380063913192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06049816691740785</v>
+      </c>
+      <c r="F91">
+        <v>0.07193351832129211</v>
+      </c>
+      <c r="G91">
+        <v>-0.005552432247043015</v>
+      </c>
+      <c r="H91">
+        <v>0.003405769671755403</v>
+      </c>
+      <c r="I91">
+        <v>-0.04243523745076205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2374011496504082</v>
+        <v>0.3369246113966353</v>
       </c>
       <c r="C92">
-        <v>0.2655617611479814</v>
+        <v>0.1453427017005176</v>
       </c>
       <c r="D92">
-        <v>-0.05767832370578081</v>
+        <v>-0.0064052602449723</v>
       </c>
       <c r="E92">
-        <v>-0.05082382095592058</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06841101768104491</v>
+      </c>
+      <c r="F92">
+        <v>0.03004123043761324</v>
+      </c>
+      <c r="G92">
+        <v>-0.03088244542379038</v>
+      </c>
+      <c r="H92">
+        <v>-0.02170773633447942</v>
+      </c>
+      <c r="I92">
+        <v>0.2494476222118168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2764952692542627</v>
+        <v>0.3347374936185399</v>
       </c>
       <c r="C93">
-        <v>0.2553552623608685</v>
+        <v>0.1171375948203097</v>
       </c>
       <c r="D93">
-        <v>0.01378472620247016</v>
+        <v>-0.01904856281585894</v>
       </c>
       <c r="E93">
-        <v>-0.003086592000284839</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02577998635827672</v>
+      </c>
+      <c r="F93">
+        <v>0.007719665874466414</v>
+      </c>
+      <c r="G93">
+        <v>0.0190376152403652</v>
+      </c>
+      <c r="H93">
+        <v>-0.0001206220221645353</v>
+      </c>
+      <c r="I93">
+        <v>0.007248999119422767</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3018249905213026</v>
+        <v>0.1346218661662853</v>
       </c>
       <c r="C94">
-        <v>-0.2693060146772168</v>
+        <v>-0.3594370577457482</v>
       </c>
       <c r="D94">
-        <v>-0.3456435932955761</v>
+        <v>-0.3464791991601268</v>
       </c>
       <c r="E94">
-        <v>0.2126853797463333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05533253579391901</v>
+      </c>
+      <c r="F94">
+        <v>-0.09305580970376766</v>
+      </c>
+      <c r="G94">
+        <v>-0.2963727543973774</v>
+      </c>
+      <c r="H94">
+        <v>0.09416282843630003</v>
+      </c>
+      <c r="I94">
+        <v>0.1246732731691037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01574672992441126</v>
+        <v>0.01925212502248508</v>
       </c>
       <c r="C95">
-        <v>-0.03849801779061653</v>
+        <v>-0.06196405656357595</v>
       </c>
       <c r="D95">
-        <v>0.02151546703562997</v>
+        <v>0.1047294347366036</v>
       </c>
       <c r="E95">
-        <v>-0.08687820044908234</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1549618369313432</v>
+      </c>
+      <c r="F95">
+        <v>-0.02307479476686065</v>
+      </c>
+      <c r="G95">
+        <v>0.02710587956411668</v>
+      </c>
+      <c r="H95">
+        <v>-0.409951501446263</v>
+      </c>
+      <c r="I95">
+        <v>0.1865714367366994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0011684372720149</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0006446714217929777</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.001018189067667024</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003300705854068413</v>
+      </c>
+      <c r="F97">
+        <v>4.335869505804713e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004953711929840935</v>
+      </c>
+      <c r="H97">
+        <v>-0.003578139593302527</v>
+      </c>
+      <c r="I97">
+        <v>0.004360640506827333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1452566262840695</v>
+        <v>0.1150381926379349</v>
       </c>
       <c r="C98">
-        <v>-0.08338257098783045</v>
+        <v>-0.1461854816396014</v>
       </c>
       <c r="D98">
-        <v>0.162460363213054</v>
+        <v>0.06878216649400332</v>
       </c>
       <c r="E98">
-        <v>0.1962868888636218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2078047935581935</v>
+      </c>
+      <c r="F98">
+        <v>-0.2457976870432728</v>
+      </c>
+      <c r="G98">
+        <v>0.2989577582155156</v>
+      </c>
+      <c r="H98">
+        <v>0.1192448577866667</v>
+      </c>
+      <c r="I98">
+        <v>-0.04088668594234984</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00171393071994108</v>
+        <v>0.0001285219817861178</v>
       </c>
       <c r="C101">
-        <v>-0.02060707936339712</v>
+        <v>-0.03181903139259531</v>
       </c>
       <c r="D101">
-        <v>0.09772713731746722</v>
+        <v>0.09985579885555704</v>
       </c>
       <c r="E101">
-        <v>-0.01681017064618359</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05473855281290712</v>
+      </c>
+      <c r="F101">
+        <v>0.03941705134209128</v>
+      </c>
+      <c r="G101">
+        <v>-0.02550098387090357</v>
+      </c>
+      <c r="H101">
+        <v>-0.130453118355876</v>
+      </c>
+      <c r="I101">
+        <v>0.01707312264442074</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1074272394238876</v>
+        <v>0.03031916681499813</v>
       </c>
       <c r="C102">
-        <v>-0.1571694396931578</v>
+        <v>-0.1518541367437299</v>
       </c>
       <c r="D102">
-        <v>-0.06360230441196145</v>
+        <v>-0.09484803482233743</v>
       </c>
       <c r="E102">
-        <v>0.05052132967914005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03311962436759581</v>
+      </c>
+      <c r="F102">
+        <v>-0.0612959994745588</v>
+      </c>
+      <c r="G102">
+        <v>-0.007578780976886275</v>
+      </c>
+      <c r="H102">
+        <v>-0.05331604181335229</v>
+      </c>
+      <c r="I102">
+        <v>-0.02835047656079634</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
